--- a/methanolA_HIFIdata_k3.xlsx
+++ b/methanolA_HIFIdata_k3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcaprod_ucl_ac_uk/Documents/Desktop/UCL/Year3/group project/codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E80D9703-59D0-4901-B742-7B5A8FB402E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E80D9703-59D0-4901-B742-7B5A8FB402E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9108BDDD-97D7-4D6A-A924-D18495A0B788}"/>
   <bookViews>
-    <workbookView xWindow="26190" yWindow="5475" windowWidth="21420" windowHeight="12825" xr2:uid="{F747B3B6-5C27-4961-BB22-8764084182AC}"/>
+    <workbookView xWindow="0" yWindow="2880" windowWidth="43665" windowHeight="12825" xr2:uid="{F747B3B6-5C27-4961-BB22-8764084182AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,10 +540,14 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
